--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_SWP\SWP391_Group1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE47C618-59D4-4B13-BFF2-046A9079FB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8D8B1F-681B-456D-86C9-D193D40884A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D1DD4B21-1223-4DE4-A214-326EA3625681}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D1DD4B21-1223-4DE4-A214-326EA3625681}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Content</t>
   </si>
@@ -91,13 +91,28 @@
   </si>
   <si>
     <t>Question 6</t>
+  </si>
+  <si>
+    <t>Option 5</t>
+  </si>
+  <si>
+    <t>Siuuuuu</t>
+  </si>
+  <si>
+    <t>Messii</t>
+  </si>
+  <si>
+    <t>CR7</t>
+  </si>
+  <si>
+    <t>Answer 2-1, Cr7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +124,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -142,11 +163,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,9 +185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +225,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -311,7 +331,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,26 +483,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BEF233-350B-42D4-A01F-93307CE84334}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="20" style="4" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" style="4" customWidth="1"/>
-    <col min="10" max="11" width="17.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="42.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="17.7109375" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,12 +524,14 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -531,10 +553,10 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -542,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -553,11 +575,15 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -576,31 +602,35 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
       <c r="F14" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>